--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ-Gamelauncher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fancy_BLJ-Gamelauncher\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC2041-124C-4D95-A854-8E133C7563F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED2F273-DC7C-4BB0-A2B0-74B43BA67EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1680" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2295" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -229,24 +229,6 @@
     <t>Schulung, Wissen aneignen, Gespräch Urs</t>
   </si>
   <si>
-    <t>Anforderung Labyrinth #03</t>
-  </si>
-  <si>
-    <t>Anforderung Labyrinth #02</t>
-  </si>
-  <si>
-    <t>Anforderung Labyrinth #01</t>
-  </si>
-  <si>
-    <t>Anforderung Labyrinth #04</t>
-  </si>
-  <si>
-    <t>Anforderung Labyrinth #05</t>
-  </si>
-  <si>
-    <t>Anforderung Labyrinth #06</t>
-  </si>
-  <si>
     <t>Anforderung Launcher #01</t>
   </si>
   <si>
@@ -269,6 +251,24 @@
   </si>
   <si>
     <t>Anforderung Launcher #09</t>
+  </si>
+  <si>
+    <t>Anforderung Snake #01</t>
+  </si>
+  <si>
+    <t>Anforderung Snake #02</t>
+  </si>
+  <si>
+    <t>Anforderung Snake #03</t>
+  </si>
+  <si>
+    <t>Anforderung Snake #04</t>
+  </si>
+  <si>
+    <t>Anforderung Snake #05</t>
+  </si>
+  <si>
+    <t>Anforderung Snake #06</t>
   </si>
 </sst>
 </file>
@@ -1453,6 +1453,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,10 +1487,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1668,7 +1668,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2175,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2495,84 +2495,84 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="97" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="97" t="s">
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="99" t="s">
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="97" t="s">
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="99" t="s">
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="97"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="97"/>
-      <c r="AZ7" s="97"/>
-      <c r="BA7" s="97"/>
-      <c r="BB7" s="97"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="97"/>
-      <c r="BF7" s="97"/>
-      <c r="BG7" s="97"/>
-      <c r="BH7" s="97"/>
-      <c r="BI7" s="97"/>
-      <c r="BJ7" s="100"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="99"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="98"/>
+      <c r="BI7" s="98"/>
+      <c r="BJ7" s="101"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D34)</f>
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D33" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3598,7 +3598,9 @@
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="63"/>
+      <c r="K20" s="63">
+        <v>8</v>
+      </c>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
@@ -3656,14 +3658,14 @@
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="49">
         <v>4</v>
       </c>
       <c r="D21" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3676,7 +3678,9 @@
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="92"/>
+      <c r="P21" s="92">
+        <v>1</v>
+      </c>
       <c r="Q21" s="55"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
@@ -3729,14 +3733,14 @@
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C22" s="49">
         <v>2</v>
       </c>
       <c r="D22" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3749,7 +3753,9 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="92"/>
+      <c r="P22" s="92">
+        <v>2</v>
+      </c>
       <c r="Q22" s="55"/>
       <c r="R22" s="56"/>
       <c r="S22" s="57"/>
@@ -3802,14 +3808,14 @@
         <v>305</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C23" s="49">
         <v>2.5</v>
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3822,7 +3828,9 @@
       <c r="M23" s="58"/>
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="94"/>
+      <c r="P23" s="94">
+        <v>1</v>
+      </c>
       <c r="Q23" s="84"/>
       <c r="R23" s="56"/>
       <c r="S23" s="57"/>
@@ -3875,14 +3883,14 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C24" s="49">
         <v>3</v>
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3896,7 +3904,9 @@
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
       <c r="P24" s="55"/>
-      <c r="Q24" s="92"/>
+      <c r="Q24" s="92">
+        <v>2</v>
+      </c>
       <c r="R24" s="56"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
@@ -3948,14 +3958,14 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C25" s="49">
         <v>2.5</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -3969,7 +3979,9 @@
       <c r="N25" s="59"/>
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
-      <c r="Q25" s="92"/>
+      <c r="Q25" s="92">
+        <v>0.5</v>
+      </c>
       <c r="R25" s="56"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
@@ -4021,14 +4033,14 @@
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C26" s="49">
         <v>8</v>
       </c>
       <c r="D26" s="82">
         <f t="shared" ref="D26:D31" si="1">SUM(G26:BJ26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4042,7 +4054,9 @@
       <c r="N26" s="59"/>
       <c r="O26" s="60"/>
       <c r="P26" s="55"/>
-      <c r="Q26" s="92"/>
+      <c r="Q26" s="92">
+        <v>1</v>
+      </c>
       <c r="R26" s="63"/>
       <c r="S26" s="57"/>
       <c r="T26" s="58"/>
@@ -4094,7 +4108,7 @@
         <v>309</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C27" s="49">
         <v>8</v>
@@ -4167,7 +4181,7 @@
         <v>310</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="49">
         <v>3</v>
@@ -4240,7 +4254,7 @@
         <v>311</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C29" s="49">
         <v>4</v>
@@ -4267,7 +4281,7 @@
       <c r="T29" s="58"/>
       <c r="U29" s="59"/>
       <c r="V29" s="60"/>
-      <c r="W29" s="105"/>
+      <c r="W29" s="96"/>
       <c r="X29" s="92"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
@@ -4313,7 +4327,7 @@
         <v>312</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C30" s="49">
         <v>4</v>
@@ -4386,7 +4400,7 @@
         <v>313</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31" s="49">
         <v>4</v>
@@ -4459,7 +4473,7 @@
         <v>314</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" s="49">
         <v>4</v>
@@ -4532,7 +4546,7 @@
         <v>315</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C33" s="49">
         <v>4</v>
@@ -4605,7 +4619,7 @@
         <v>316</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C34" s="49">
         <v>4</v>
@@ -5551,7 +5565,7 @@
       </c>
       <c r="D47" s="37">
         <f>D43+D40+D35+D18+D14+D9</f>
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -5573,7 +5587,7 @@
       </c>
       <c r="K47" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L47" s="39">
         <f t="shared" si="4"/>
@@ -5593,11 +5607,11 @@
       </c>
       <c r="P47" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q47" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R47" s="39">
         <f t="shared" si="4"/>
@@ -5684,99 +5698,99 @@
         <v>0</v>
       </c>
       <c r="AM47" s="39">
-        <f>SUM(AM9:AM46)</f>
+        <f t="shared" ref="AM47:BJ47" si="5">SUM(AM9:AM46)</f>
         <v>0</v>
       </c>
       <c r="AN47" s="39">
-        <f>SUM(AN9:AN46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO47" s="39">
-        <f>SUM(AO9:AO46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP47" s="39">
-        <f>SUM(AP9:AP46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ47" s="39">
-        <f>SUM(AQ9:AQ46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR47" s="39">
-        <f>SUM(AR9:AR46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS47" s="39">
-        <f>SUM(AS9:AS46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT47" s="39">
-        <f>SUM(AT9:AT46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU47" s="39">
-        <f>SUM(AU9:AU46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV47" s="39">
-        <f>SUM(AV9:AV46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW47" s="39">
-        <f>SUM(AW9:AW46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX47" s="39">
-        <f>SUM(AX9:AX46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY47" s="39">
-        <f>SUM(AY9:AY46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ47" s="39">
-        <f>SUM(AZ9:AZ46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA47" s="39">
-        <f>SUM(BA9:BA46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB47" s="39">
-        <f>SUM(BB9:BB46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC47" s="39">
-        <f>SUM(BC9:BC46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD47" s="39">
-        <f>SUM(BD9:BD46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE47" s="39">
-        <f>SUM(BE9:BE46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF47" s="39">
-        <f>SUM(BF9:BF46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG47" s="39">
-        <f>SUM(BG9:BG46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH47" s="39">
-        <f>SUM(BH9:BH46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI47" s="39">
-        <f>SUM(BI9:BI46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ47" s="40">
-        <f>SUM(BJ9:BJ46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5826,10 +5840,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="78" t="s">
         <v>14</v>
       </c>
@@ -5838,11 +5852,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="101" t="str">
+      <c r="A3" s="102" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="79">
         <f>Zeitplanung!C9</f>
         <v>2.5</v>
@@ -5855,11 +5869,11 @@
       <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="101" t="str">
+      <c r="A4" s="102" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="79">
         <f>Zeitplanung!C14</f>
         <v>7</v>
@@ -5872,28 +5886,28 @@
       <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="101" t="str">
+      <c r="A5" s="102" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
         <v>66</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="101" t="str">
+      <c r="A6" s="102" t="str">
         <f>Zeitplanung!B35</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="79">
         <f>Zeitplanung!C35</f>
         <v>16</v>
@@ -5905,11 +5919,11 @@
       <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="101" t="str">
+      <c r="A7" s="102" t="str">
         <f>Zeitplanung!B40</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="79">
         <f>Zeitplanung!C40</f>
         <v>4</v>
@@ -5921,11 +5935,11 @@
       <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="101" t="str">
+      <c r="A8" s="102" t="str">
         <f>Zeitplanung!B43</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="79">
         <f>Zeitplanung!C43</f>
         <v>4</v>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fancy_BLJ-Gamelauncher\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED2F273-DC7C-4BB0-A2B0-74B43BA67EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F28C6D-599D-435F-8FD4-46D6A188B3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2295" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,7 +1668,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2175,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D34)</f>
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3903,10 +3903,10 @@
       <c r="M24" s="58"/>
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="92">
+      <c r="P24" s="55">
         <v>2</v>
       </c>
+      <c r="Q24" s="92"/>
       <c r="R24" s="56"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -3978,10 +3978,10 @@
       <c r="M25" s="58"/>
       <c r="N25" s="59"/>
       <c r="O25" s="60"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="92">
-        <v>0.5</v>
-      </c>
+      <c r="P25" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="92"/>
       <c r="R25" s="56"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D26" s="82">
         <f t="shared" ref="D26:D31" si="1">SUM(G26:BJ26)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4053,9 +4053,11 @@
       <c r="M26" s="58"/>
       <c r="N26" s="59"/>
       <c r="O26" s="60"/>
-      <c r="P26" s="55"/>
+      <c r="P26" s="55">
+        <v>1</v>
+      </c>
       <c r="Q26" s="92">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="R26" s="63"/>
       <c r="S26" s="57"/>
@@ -4115,7 +4117,7 @@
       </c>
       <c r="D27" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
@@ -4129,7 +4131,9 @@
       <c r="N27" s="59"/>
       <c r="O27" s="60"/>
       <c r="P27" s="55"/>
-      <c r="Q27" s="93"/>
+      <c r="Q27" s="93">
+        <v>3.5</v>
+      </c>
       <c r="R27" s="63"/>
       <c r="S27" s="57"/>
       <c r="T27" s="58"/>
@@ -5565,7 +5569,7 @@
       </c>
       <c r="D47" s="37">
         <f>D43+D40+D35+D18+D14+D9</f>
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -5607,11 +5611,11 @@
       </c>
       <c r="P47" s="39">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q47" s="39">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="R47" s="39">
         <f t="shared" si="4"/>
@@ -5897,7 +5901,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fancy_BLJ-Gamelauncher\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F28C6D-599D-435F-8FD4-46D6A188B3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45F4B9-8B1B-492A-B152-AE9A30EE3D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2295" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,7 +1668,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2175,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D34)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="D28" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="51"/>
@@ -4207,7 +4207,9 @@
       <c r="O28" s="60"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
+      <c r="R28" s="55">
+        <v>1</v>
+      </c>
       <c r="S28" s="57"/>
       <c r="T28" s="58"/>
       <c r="U28" s="59"/>
@@ -4265,7 +4267,7 @@
       </c>
       <c r="D29" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
@@ -4280,7 +4282,9 @@
       <c r="O29" s="60"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
+      <c r="R29" s="55">
+        <v>1</v>
+      </c>
       <c r="S29" s="57"/>
       <c r="T29" s="58"/>
       <c r="U29" s="59"/>
@@ -4338,7 +4342,7 @@
       </c>
       <c r="D30" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -4353,7 +4357,9 @@
       <c r="O30" s="60"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
+      <c r="R30" s="55">
+        <v>6</v>
+      </c>
       <c r="S30" s="57"/>
       <c r="T30" s="58"/>
       <c r="U30" s="59"/>
@@ -5569,7 +5575,7 @@
       </c>
       <c r="D47" s="37">
         <f>D43+D40+D35+D18+D14+D9</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="R47" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S47" s="39">
         <f t="shared" si="4"/>
@@ -5901,7 +5907,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fancy_BLJ-Gamelauncher\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45F4B9-8B1B-492A-B152-AE9A30EE3D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839EDAA-7CA7-4DB7-B76E-C43730F0C0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2295" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -2175,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI27" sqref="AI27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D12" s="82">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -3007,14 +3007,18 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="63">
+        <v>0.15</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="63">
+        <v>0.15</v>
+      </c>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
       <c r="U12" s="59"/>
@@ -5575,7 +5579,7 @@
       </c>
       <c r="D47" s="37">
         <f>D43+D40+D35+D18+D14+D9</f>
-        <v>35</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -5597,7 +5601,7 @@
       </c>
       <c r="K47" s="39">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>8.15</v>
       </c>
       <c r="L47" s="39">
         <f t="shared" si="4"/>
@@ -5625,7 +5629,7 @@
       </c>
       <c r="R47" s="39">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>8.15</v>
       </c>
       <c r="S47" s="39">
         <f t="shared" si="4"/>
@@ -5873,7 +5877,7 @@
       </c>
       <c r="D3" s="79">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fancy_BLJ-Gamelauncher\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839EDAA-7CA7-4DB7-B76E-C43730F0C0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C1B2F-144A-4DDF-9CC9-4B35847F022F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2295" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1830" windowWidth="29040" windowHeight="17640" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1668,7 +1668,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2175,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D34)</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D30" s="82">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -4368,7 +4368,9 @@
       <c r="T30" s="58"/>
       <c r="U30" s="59"/>
       <c r="V30" s="60"/>
-      <c r="W30" s="55"/>
+      <c r="W30" s="55">
+        <v>2</v>
+      </c>
       <c r="X30" s="92"/>
       <c r="Y30" s="56"/>
       <c r="Z30" s="57"/>
@@ -4414,14 +4416,14 @@
         <v>313</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="49">
         <v>4</v>
       </c>
       <c r="D31" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="51"/>
@@ -4441,9 +4443,15 @@
       <c r="T31" s="58"/>
       <c r="U31" s="59"/>
       <c r="V31" s="60"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="92"/>
+      <c r="W31" s="55">
+        <v>4</v>
+      </c>
+      <c r="X31" s="93">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="92">
+        <v>2</v>
+      </c>
       <c r="Z31" s="57"/>
       <c r="AA31" s="58"/>
       <c r="AB31" s="61"/>
@@ -4487,14 +4495,14 @@
         <v>314</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="49">
         <v>4</v>
       </c>
       <c r="D32" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4514,7 +4522,9 @@
       <c r="T32" s="58"/>
       <c r="U32" s="59"/>
       <c r="V32" s="60"/>
-      <c r="W32" s="55"/>
+      <c r="W32" s="55">
+        <v>2</v>
+      </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="92"/>
       <c r="Z32" s="57"/>
@@ -4567,7 +4577,7 @@
       </c>
       <c r="D33" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4589,7 +4599,9 @@
       <c r="V33" s="71"/>
       <c r="W33" s="55"/>
       <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
+      <c r="Y33" s="56">
+        <v>2</v>
+      </c>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="95"/>
@@ -4640,7 +4652,7 @@
       </c>
       <c r="D34" s="82">
         <f>SUM(G34:BJ34)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4662,7 +4674,9 @@
       <c r="V34" s="71"/>
       <c r="W34" s="55"/>
       <c r="X34" s="55"/>
-      <c r="Y34" s="56"/>
+      <c r="Y34" s="56">
+        <v>4</v>
+      </c>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="95"/>
@@ -5579,7 +5593,7 @@
       </c>
       <c r="D47" s="37">
         <f>D43+D40+D35+D18+D14+D9</f>
-        <v>35.299999999999997</v>
+        <v>59.3</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
@@ -5649,15 +5663,15 @@
       </c>
       <c r="W47" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X47" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y47" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z47" s="39">
         <f t="shared" si="4"/>
@@ -5911,7 +5925,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/Documents/Zeitplanung.xlsx
+++ b/Documents/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fancy_BLJ-Gamelauncher\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C1B2F-144A-4DDF-9CC9-4B35847F022F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409D6E49-45EB-4EF6-9858-77700C0F01E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1830" windowWidth="29040" windowHeight="17640" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2295" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Nr.</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Anforderung Snake #06</t>
+  </si>
+  <si>
+    <t>Anforderung Snake #07</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1131,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1487,6 +1490,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1668,10 +1675,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2173,10 +2180,10 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:BJ47"/>
+  <dimension ref="A1:BJ48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AS30" sqref="AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3441,12 +3448,12 @@
         <v>9</v>
       </c>
       <c r="C18" s="41">
-        <f>SUM(C19:C34)</f>
+        <f>SUM(C19:C35)</f>
         <v>66</v>
       </c>
       <c r="D18" s="42">
-        <f>SUM(D19:D34)</f>
-        <v>56</v>
+        <f>SUM(D19:D35)</f>
+        <v>76</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3593,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="82">
-        <f t="shared" ref="D20:D33" si="0">SUM(G20:BJ20)</f>
+        <f t="shared" ref="D20:D34" si="0">SUM(G20:BJ20)</f>
         <v>8</v>
       </c>
       <c r="E20" s="50"/>
@@ -4043,7 +4050,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="82">
-        <f t="shared" ref="D26:D31" si="1">SUM(G26:BJ26)</f>
+        <f t="shared" ref="D26:D32" si="1">SUM(G26:BJ26)</f>
         <v>4.5</v>
       </c>
       <c r="E26" s="50"/>
@@ -4110,18 +4117,15 @@
       <c r="BJ26" s="58"/>
     </row>
     <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="12">
-        <v>309</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="46" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C27" s="49">
+        <v>0</v>
+      </c>
+      <c r="D27" s="82">
         <v>8</v>
-      </c>
-      <c r="D27" s="82">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
@@ -4135,21 +4139,21 @@
       <c r="N27" s="59"/>
       <c r="O27" s="60"/>
       <c r="P27" s="55"/>
-      <c r="Q27" s="93">
-        <v>3.5</v>
-      </c>
-      <c r="R27" s="63"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
       <c r="S27" s="57"/>
       <c r="T27" s="58"/>
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
-      <c r="W27" s="92"/>
+      <c r="W27" s="55"/>
       <c r="X27" s="55"/>
       <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
+      <c r="AC27" s="61">
+        <v>4</v>
+      </c>
       <c r="AD27" s="60"/>
       <c r="AE27" s="60"/>
       <c r="AF27" s="60"/>
@@ -4164,7 +4168,9 @@
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
-      <c r="AR27" s="55"/>
+      <c r="AR27" s="55">
+        <v>4</v>
+      </c>
       <c r="AS27" s="55"/>
       <c r="AT27" s="56"/>
       <c r="AU27" s="57"/>
@@ -4186,17 +4192,17 @@
     </row>
     <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D28" s="82">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="51"/>
@@ -4210,15 +4216,15 @@
       <c r="N28" s="59"/>
       <c r="O28" s="60"/>
       <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55">
-        <v>1</v>
-      </c>
+      <c r="Q28" s="93">
+        <v>3.5</v>
+      </c>
+      <c r="R28" s="63"/>
       <c r="S28" s="57"/>
       <c r="T28" s="58"/>
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
-      <c r="W28" s="63"/>
+      <c r="W28" s="92"/>
       <c r="X28" s="55"/>
       <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
@@ -4239,7 +4245,9 @@
       <c r="AO28" s="58"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
-      <c r="AR28" s="55"/>
+      <c r="AR28" s="55">
+        <v>4</v>
+      </c>
       <c r="AS28" s="55"/>
       <c r="AT28" s="56"/>
       <c r="AU28" s="57"/>
@@ -4261,13 +4269,13 @@
     </row>
     <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="82">
         <f t="shared" si="1"/>
@@ -4293,8 +4301,8 @@
       <c r="T29" s="58"/>
       <c r="U29" s="59"/>
       <c r="V29" s="60"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="92"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="55"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
@@ -4336,17 +4344,17 @@
     </row>
     <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="49">
         <v>4</v>
       </c>
       <c r="D30" s="82">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -4362,15 +4370,13 @@
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S30" s="57"/>
       <c r="T30" s="58"/>
       <c r="U30" s="59"/>
       <c r="V30" s="60"/>
-      <c r="W30" s="55">
-        <v>2</v>
-      </c>
+      <c r="W30" s="96"/>
       <c r="X30" s="92"/>
       <c r="Y30" s="56"/>
       <c r="Z30" s="57"/>
@@ -4413,17 +4419,17 @@
     </row>
     <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="49">
         <v>4</v>
       </c>
       <c r="D31" s="82">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="51"/>
@@ -4438,20 +4444,18 @@
       <c r="O31" s="60"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
+      <c r="R31" s="55">
+        <v>6</v>
+      </c>
       <c r="S31" s="57"/>
       <c r="T31" s="58"/>
       <c r="U31" s="59"/>
       <c r="V31" s="60"/>
       <c r="W31" s="55">
-        <v>4</v>
-      </c>
-      <c r="X31" s="93">
-        <v>8</v>
-      </c>
-      <c r="Y31" s="92">
         <v>2</v>
       </c>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="56"/>
       <c r="Z31" s="57"/>
       <c r="AA31" s="58"/>
       <c r="AB31" s="61"/>
@@ -4492,17 +4496,17 @@
     </row>
     <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="49">
         <v>4</v>
       </c>
       <c r="D32" s="82">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4523,10 +4527,14 @@
       <c r="U32" s="59"/>
       <c r="V32" s="60"/>
       <c r="W32" s="55">
+        <v>4</v>
+      </c>
+      <c r="X32" s="93">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="92">
         <v>2</v>
       </c>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="92"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="61"/>
@@ -4567,10 +4575,10 @@
     </row>
     <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="49">
         <v>4</v>
@@ -4581,30 +4589,30 @@
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="71"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
       <c r="K33" s="56"/>
       <c r="L33" s="57"/>
       <c r="M33" s="58"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="71"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="60"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="55"/>
       <c r="R33" s="56"/>
       <c r="S33" s="57"/>
       <c r="T33" s="58"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="55"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="55">
+        <v>2</v>
+      </c>
       <c r="X33" s="55"/>
-      <c r="Y33" s="56">
-        <v>2</v>
-      </c>
+      <c r="Y33" s="92"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="95"/>
+      <c r="AB33" s="61"/>
       <c r="AC33" s="61"/>
       <c r="AD33" s="60"/>
       <c r="AE33" s="60"/>
@@ -4618,22 +4626,22 @@
       <c r="AM33" s="60"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="58"/>
-      <c r="AP33" s="70"/>
-      <c r="AQ33" s="71"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="60"/>
       <c r="AR33" s="55"/>
       <c r="AS33" s="55"/>
       <c r="AT33" s="56"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
-      <c r="AW33" s="70"/>
-      <c r="AX33" s="71"/>
+      <c r="AW33" s="59"/>
+      <c r="AX33" s="60"/>
       <c r="AY33" s="55"/>
       <c r="AZ33" s="55"/>
       <c r="BA33" s="56"/>
       <c r="BB33" s="57"/>
       <c r="BC33" s="58"/>
-      <c r="BD33" s="70"/>
-      <c r="BE33" s="71"/>
+      <c r="BD33" s="59"/>
+      <c r="BE33" s="60"/>
       <c r="BF33" s="55"/>
       <c r="BG33" s="55"/>
       <c r="BH33" s="56"/>
@@ -4642,17 +4650,17 @@
     </row>
     <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="49">
         <v>4</v>
       </c>
       <c r="D34" s="82">
-        <f>SUM(G34:BJ34)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4675,7 +4683,7 @@
       <c r="W34" s="55"/>
       <c r="X34" s="55"/>
       <c r="Y34" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
@@ -4716,191 +4724,197 @@
       <c r="BJ34" s="58"/>
     </row>
     <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="30">
-        <v>40</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="41">
-        <f>SUM(C36:C39)</f>
-        <v>16</v>
-      </c>
-      <c r="D35" s="42">
-        <f>SUM(D36:D39)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="74"/>
-      <c r="AN35" s="74"/>
-      <c r="AO35" s="75"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="73"/>
-      <c r="AR35" s="73"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="74"/>
-      <c r="AU35" s="74"/>
-      <c r="AV35" s="75"/>
-      <c r="AW35" s="76"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
-      <c r="BA35" s="73"/>
-      <c r="BB35" s="73"/>
-      <c r="BC35" s="75"/>
-      <c r="BD35" s="76"/>
-      <c r="BE35" s="73"/>
-      <c r="BF35" s="73"/>
-      <c r="BG35" s="73"/>
-      <c r="BH35" s="73"/>
-      <c r="BI35" s="73"/>
-      <c r="BJ35" s="77"/>
+      <c r="A35" s="12">
+        <v>316</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="49">
+        <v>4</v>
+      </c>
+      <c r="D35" s="82">
+        <f>SUM(G35:BJ35)</f>
+        <v>12</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="56">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="106">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="58"/>
+      <c r="AP35" s="70"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="55"/>
+      <c r="AS35" s="55"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="70"/>
+      <c r="AX35" s="71"/>
+      <c r="AY35" s="55"/>
+      <c r="AZ35" s="55"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="58"/>
+      <c r="BD35" s="70"/>
+      <c r="BE35" s="71"/>
+      <c r="BF35" s="55"/>
+      <c r="BG35" s="55"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="58"/>
     </row>
     <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="12">
-        <v>401</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="49">
+      <c r="A36" s="30">
+        <v>40</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="41">
+        <f>SUM(C37:C40)</f>
+        <v>16</v>
+      </c>
+      <c r="D36" s="42">
+        <f>SUM(D37:D40)</f>
         <v>4</v>
       </c>
-      <c r="D36" s="82">
-        <f>SUM(G36:BJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="58"/>
-      <c r="AP36" s="53"/>
-      <c r="AQ36" s="54"/>
-      <c r="AR36" s="93"/>
-      <c r="AS36" s="55"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="58"/>
-      <c r="AW36" s="53"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="56"/>
-      <c r="BB36" s="57"/>
-      <c r="BC36" s="58"/>
-      <c r="BD36" s="53"/>
-      <c r="BE36" s="54"/>
-      <c r="BF36" s="55"/>
-      <c r="BG36" s="55"/>
-      <c r="BH36" s="56"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="58"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="74"/>
+      <c r="AO36" s="75"/>
+      <c r="AP36" s="72"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="74"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="75"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="73"/>
+      <c r="BA36" s="73"/>
+      <c r="BB36" s="73"/>
+      <c r="BC36" s="75"/>
+      <c r="BD36" s="76"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="77"/>
     </row>
     <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="49">
         <v>4</v>
       </c>
       <c r="D37" s="82">
-        <f t="shared" ref="D37:D39" si="2">SUM(G37:BJ37)</f>
-        <v>0</v>
+        <f>SUM(G37:BJ37)</f>
+        <v>2</v>
       </c>
       <c r="E37" s="50"/>
       <c r="F37" s="51"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
       <c r="K37" s="56"/>
       <c r="L37" s="57"/>
       <c r="M37" s="58"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="60"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="54"/>
       <c r="P37" s="55"/>
       <c r="Q37" s="55"/>
       <c r="R37" s="56"/>
       <c r="S37" s="57"/>
       <c r="T37" s="58"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
       <c r="W37" s="55"/>
       <c r="X37" s="55"/>
       <c r="Y37" s="56"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="58"/>
       <c r="AB37" s="61"/>
-      <c r="AC37" s="94"/>
+      <c r="AC37" s="94">
+        <v>2</v>
+      </c>
       <c r="AD37" s="60"/>
       <c r="AE37" s="60"/>
       <c r="AF37" s="60"/>
@@ -4913,22 +4927,22 @@
       <c r="AM37" s="60"/>
       <c r="AN37" s="57"/>
       <c r="AO37" s="58"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="60"/>
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="54"/>
       <c r="AR37" s="93"/>
       <c r="AS37" s="55"/>
       <c r="AT37" s="56"/>
       <c r="AU37" s="57"/>
       <c r="AV37" s="58"/>
-      <c r="AW37" s="59"/>
-      <c r="AX37" s="60"/>
+      <c r="AW37" s="53"/>
+      <c r="AX37" s="54"/>
       <c r="AY37" s="55"/>
       <c r="AZ37" s="55"/>
       <c r="BA37" s="56"/>
       <c r="BB37" s="57"/>
       <c r="BC37" s="58"/>
-      <c r="BD37" s="59"/>
-      <c r="BE37" s="60"/>
+      <c r="BD37" s="53"/>
+      <c r="BE37" s="54"/>
       <c r="BF37" s="55"/>
       <c r="BG37" s="55"/>
       <c r="BH37" s="56"/>
@@ -4937,17 +4951,17 @@
     </row>
     <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" s="49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="D38:D40" si="2">SUM(G38:BJ38)</f>
+        <v>2</v>
       </c>
       <c r="E38" s="50"/>
       <c r="F38" s="51"/>
@@ -4973,7 +4987,9 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
+      <c r="AC38" s="94">
+        <v>2</v>
+      </c>
       <c r="AD38" s="60"/>
       <c r="AE38" s="60"/>
       <c r="AF38" s="60"/>
@@ -4988,8 +5004,8 @@
       <c r="AO38" s="58"/>
       <c r="AP38" s="59"/>
       <c r="AQ38" s="60"/>
-      <c r="AR38" s="92"/>
-      <c r="AS38" s="93"/>
+      <c r="AR38" s="93"/>
+      <c r="AS38" s="55"/>
       <c r="AT38" s="56"/>
       <c r="AU38" s="57"/>
       <c r="AV38" s="58"/>
@@ -5010,32 +5026,36 @@
     </row>
     <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
-        <v>404</v>
-      </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="49"/>
+        <v>403</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="49">
+        <v>8</v>
+      </c>
       <c r="D39" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E39" s="50"/>
       <c r="F39" s="51"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
       <c r="K39" s="56"/>
       <c r="L39" s="57"/>
       <c r="M39" s="58"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="69"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="60"/>
       <c r="P39" s="55"/>
       <c r="Q39" s="55"/>
       <c r="R39" s="56"/>
       <c r="S39" s="57"/>
       <c r="T39" s="58"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="69"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="60"/>
       <c r="W39" s="55"/>
       <c r="X39" s="55"/>
       <c r="Y39" s="56"/>
@@ -5055,22 +5075,22 @@
       <c r="AM39" s="60"/>
       <c r="AN39" s="57"/>
       <c r="AO39" s="58"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="69"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="60"/>
+      <c r="AR39" s="92"/>
+      <c r="AS39" s="93"/>
       <c r="AT39" s="56"/>
       <c r="AU39" s="57"/>
       <c r="AV39" s="58"/>
-      <c r="AW39" s="68"/>
-      <c r="AX39" s="69"/>
+      <c r="AW39" s="59"/>
+      <c r="AX39" s="60"/>
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
       <c r="BA39" s="56"/>
       <c r="BB39" s="57"/>
       <c r="BC39" s="58"/>
-      <c r="BD39" s="68"/>
-      <c r="BE39" s="69"/>
+      <c r="BD39" s="59"/>
+      <c r="BE39" s="60"/>
       <c r="BF39" s="55"/>
       <c r="BG39" s="55"/>
       <c r="BH39" s="56"/>
@@ -5078,180 +5098,180 @@
       <c r="BJ39" s="58"/>
     </row>
     <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="30">
-        <v>50</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="41">
-        <f>SUM(C41:C42)</f>
-        <v>4</v>
-      </c>
-      <c r="D40" s="42">
-        <f>SUM(D41:D42)</f>
+      <c r="A40" s="12">
+        <v>404</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="82">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="76"/>
-      <c r="AC40" s="73"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="73"/>
-      <c r="AF40" s="74"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="73"/>
-      <c r="AK40" s="73"/>
-      <c r="AL40" s="73"/>
-      <c r="AM40" s="74"/>
-      <c r="AN40" s="74"/>
-      <c r="AO40" s="75"/>
-      <c r="AP40" s="72"/>
-      <c r="AQ40" s="73"/>
-      <c r="AR40" s="73"/>
-      <c r="AS40" s="73"/>
-      <c r="AT40" s="74"/>
-      <c r="AU40" s="74"/>
-      <c r="AV40" s="75"/>
-      <c r="AW40" s="76"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="73"/>
-      <c r="BA40" s="73"/>
-      <c r="BB40" s="73"/>
-      <c r="BC40" s="75"/>
-      <c r="BD40" s="76"/>
-      <c r="BE40" s="73"/>
-      <c r="BF40" s="73"/>
-      <c r="BG40" s="73"/>
-      <c r="BH40" s="73"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="77"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="60"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="60"/>
+      <c r="AN40" s="57"/>
+      <c r="AO40" s="58"/>
+      <c r="AP40" s="68"/>
+      <c r="AQ40" s="69"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="56"/>
+      <c r="AU40" s="57"/>
+      <c r="AV40" s="58"/>
+      <c r="AW40" s="68"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="56"/>
+      <c r="BB40" s="57"/>
+      <c r="BC40" s="58"/>
+      <c r="BD40" s="68"/>
+      <c r="BE40" s="69"/>
+      <c r="BF40" s="55"/>
+      <c r="BG40" s="55"/>
+      <c r="BH40" s="56"/>
+      <c r="BI40" s="57"/>
+      <c r="BJ40" s="58"/>
     </row>
     <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="12">
-        <v>501</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="49">
+      <c r="A41" s="30">
+        <v>50</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="41">
+        <f>SUM(C42:C43)</f>
         <v>4</v>
       </c>
-      <c r="D41" s="82">
-        <f>SUM(G41:BJ41)</f>
+      <c r="D41" s="42">
+        <f>SUM(D42:D43)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="61"/>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="60"/>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="60"/>
-      <c r="AL41" s="60"/>
-      <c r="AM41" s="60"/>
-      <c r="AN41" s="57"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="92"/>
-      <c r="AT41" s="56"/>
-      <c r="AU41" s="57"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="53"/>
-      <c r="AX41" s="54"/>
-      <c r="AY41" s="55"/>
-      <c r="AZ41" s="55"/>
-      <c r="BA41" s="56"/>
-      <c r="BB41" s="57"/>
-      <c r="BC41" s="58"/>
-      <c r="BD41" s="53"/>
-      <c r="BE41" s="54"/>
-      <c r="BF41" s="55"/>
-      <c r="BG41" s="55"/>
-      <c r="BH41" s="56"/>
-      <c r="BI41" s="57"/>
-      <c r="BJ41" s="58"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="72"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="73"/>
+      <c r="AL41" s="73"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="74"/>
+      <c r="AO41" s="75"/>
+      <c r="AP41" s="72"/>
+      <c r="AQ41" s="73"/>
+      <c r="AR41" s="73"/>
+      <c r="AS41" s="73"/>
+      <c r="AT41" s="74"/>
+      <c r="AU41" s="74"/>
+      <c r="AV41" s="75"/>
+      <c r="AW41" s="76"/>
+      <c r="AX41" s="73"/>
+      <c r="AY41" s="73"/>
+      <c r="AZ41" s="73"/>
+      <c r="BA41" s="73"/>
+      <c r="BB41" s="73"/>
+      <c r="BC41" s="75"/>
+      <c r="BD41" s="76"/>
+      <c r="BE41" s="73"/>
+      <c r="BF41" s="73"/>
+      <c r="BG41" s="73"/>
+      <c r="BH41" s="73"/>
+      <c r="BI41" s="73"/>
+      <c r="BJ41" s="77"/>
     </row>
     <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12">
-        <v>502</v>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="49"/>
+        <v>501</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="49">
+        <v>4</v>
+      </c>
       <c r="D42" s="82">
         <f>SUM(G42:BJ42)</f>
         <v>0</v>
       </c>
       <c r="E42" s="50"/>
       <c r="F42" s="51"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="55"/>
       <c r="J42" s="55"/>
       <c r="K42" s="56"/>
       <c r="L42" s="57"/>
       <c r="M42" s="58"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="69"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54"/>
       <c r="P42" s="55"/>
       <c r="Q42" s="55"/>
       <c r="R42" s="56"/>
       <c r="S42" s="57"/>
       <c r="T42" s="58"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="69"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="54"/>
       <c r="W42" s="55"/>
       <c r="X42" s="55"/>
       <c r="Y42" s="56"/>
@@ -5271,22 +5291,22 @@
       <c r="AM42" s="60"/>
       <c r="AN42" s="57"/>
       <c r="AO42" s="58"/>
-      <c r="AP42" s="68"/>
-      <c r="AQ42" s="69"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="54"/>
       <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
+      <c r="AS42" s="92"/>
       <c r="AT42" s="56"/>
       <c r="AU42" s="57"/>
       <c r="AV42" s="58"/>
-      <c r="AW42" s="68"/>
-      <c r="AX42" s="69"/>
+      <c r="AW42" s="53"/>
+      <c r="AX42" s="54"/>
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
       <c r="BA42" s="56"/>
       <c r="BB42" s="57"/>
       <c r="BC42" s="58"/>
-      <c r="BD42" s="68"/>
-      <c r="BE42" s="69"/>
+      <c r="BD42" s="53"/>
+      <c r="BE42" s="54"/>
       <c r="BF42" s="55"/>
       <c r="BG42" s="55"/>
       <c r="BH42" s="56"/>
@@ -5294,184 +5314,180 @@
       <c r="BJ42" s="58"/>
     </row>
     <row r="43" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="30">
-        <v>60</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="41">
-        <f>SUM(C44:C46)</f>
-        <v>4</v>
-      </c>
-      <c r="D43" s="42">
-        <f>SUM(D44:D46)</f>
+      <c r="A43" s="12">
+        <v>502</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="82">
+        <f>SUM(G43:BJ43)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="75"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="75"/>
-      <c r="AB43" s="76"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="73"/>
-      <c r="AF43" s="74"/>
-      <c r="AG43" s="74"/>
-      <c r="AH43" s="75"/>
-      <c r="AI43" s="72"/>
-      <c r="AJ43" s="73"/>
-      <c r="AK43" s="73"/>
-      <c r="AL43" s="73"/>
-      <c r="AM43" s="74"/>
-      <c r="AN43" s="74"/>
-      <c r="AO43" s="75"/>
-      <c r="AP43" s="72"/>
-      <c r="AQ43" s="73"/>
-      <c r="AR43" s="73"/>
-      <c r="AS43" s="73"/>
-      <c r="AT43" s="74"/>
-      <c r="AU43" s="74"/>
-      <c r="AV43" s="75"/>
-      <c r="AW43" s="76"/>
-      <c r="AX43" s="73"/>
-      <c r="AY43" s="73"/>
-      <c r="AZ43" s="73"/>
-      <c r="BA43" s="73"/>
-      <c r="BB43" s="73"/>
-      <c r="BC43" s="75"/>
-      <c r="BD43" s="76"/>
-      <c r="BE43" s="73"/>
-      <c r="BF43" s="73"/>
-      <c r="BG43" s="73"/>
-      <c r="BH43" s="73"/>
-      <c r="BI43" s="73"/>
-      <c r="BJ43" s="77"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="60"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="60"/>
+      <c r="AJ43" s="60"/>
+      <c r="AK43" s="60"/>
+      <c r="AL43" s="60"/>
+      <c r="AM43" s="60"/>
+      <c r="AN43" s="57"/>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="69"/>
+      <c r="AR43" s="55"/>
+      <c r="AS43" s="55"/>
+      <c r="AT43" s="56"/>
+      <c r="AU43" s="57"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="68"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="55"/>
+      <c r="AZ43" s="55"/>
+      <c r="BA43" s="56"/>
+      <c r="BB43" s="57"/>
+      <c r="BC43" s="58"/>
+      <c r="BD43" s="68"/>
+      <c r="BE43" s="69"/>
+      <c r="BF43" s="55"/>
+      <c r="BG43" s="55"/>
+      <c r="BH43" s="56"/>
+      <c r="BI43" s="57"/>
+      <c r="BJ43" s="58"/>
     </row>
     <row r="44" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="12">
-        <v>601</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="49">
-        <v>2</v>
-      </c>
-      <c r="D44" s="82">
-        <f>SUM(G44:BJ44)</f>
+      <c r="A44" s="30">
+        <v>60</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="41">
+        <f>SUM(C45:C47)</f>
+        <v>4</v>
+      </c>
+      <c r="D44" s="42">
+        <f>SUM(D45:D47)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="61"/>
-      <c r="AC44" s="61"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="58"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="60"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="58"/>
-      <c r="AP44" s="53"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="92"/>
-      <c r="AT44" s="56"/>
-      <c r="AU44" s="57"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="53"/>
-      <c r="AX44" s="54"/>
-      <c r="AY44" s="55"/>
-      <c r="AZ44" s="55"/>
-      <c r="BA44" s="56"/>
-      <c r="BB44" s="57"/>
-      <c r="BC44" s="58"/>
-      <c r="BD44" s="53"/>
-      <c r="BE44" s="54"/>
-      <c r="BF44" s="55"/>
-      <c r="BG44" s="55"/>
-      <c r="BH44" s="56"/>
-      <c r="BI44" s="57"/>
-      <c r="BJ44" s="58"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="73"/>
+      <c r="AM44" s="74"/>
+      <c r="AN44" s="74"/>
+      <c r="AO44" s="75"/>
+      <c r="AP44" s="72"/>
+      <c r="AQ44" s="73"/>
+      <c r="AR44" s="73"/>
+      <c r="AS44" s="73"/>
+      <c r="AT44" s="74"/>
+      <c r="AU44" s="74"/>
+      <c r="AV44" s="75"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="73"/>
+      <c r="AY44" s="73"/>
+      <c r="AZ44" s="73"/>
+      <c r="BA44" s="73"/>
+      <c r="BB44" s="73"/>
+      <c r="BC44" s="75"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="73"/>
+      <c r="BF44" s="73"/>
+      <c r="BG44" s="73"/>
+      <c r="BH44" s="73"/>
+      <c r="BI44" s="73"/>
+      <c r="BJ44" s="77"/>
     </row>
     <row r="45" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="12">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C45" s="49">
         <v>2</v>
       </c>
       <c r="D45" s="82">
-        <f t="shared" ref="D45:D46" si="3">SUM(G45:BJ45)</f>
+        <f>SUM(G45:BJ45)</f>
         <v>0</v>
       </c>
       <c r="E45" s="50"/>
       <c r="F45" s="51"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="60"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="56"/>
       <c r="L45" s="57"/>
       <c r="M45" s="58"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="60"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="54"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="57"/>
       <c r="T45" s="58"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="60"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="54"/>
       <c r="W45" s="55"/>
       <c r="X45" s="55"/>
       <c r="Y45" s="56"/>
@@ -5491,22 +5507,22 @@
       <c r="AM45" s="60"/>
       <c r="AN45" s="57"/>
       <c r="AO45" s="58"/>
-      <c r="AP45" s="59"/>
-      <c r="AQ45" s="60"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="54"/>
       <c r="AR45" s="55"/>
       <c r="AS45" s="92"/>
       <c r="AT45" s="56"/>
       <c r="AU45" s="57"/>
       <c r="AV45" s="58"/>
-      <c r="AW45" s="59"/>
-      <c r="AX45" s="60"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="54"/>
       <c r="AY45" s="55"/>
       <c r="AZ45" s="55"/>
       <c r="BA45" s="56"/>
       <c r="BB45" s="57"/>
       <c r="BC45" s="58"/>
-      <c r="BD45" s="59"/>
-      <c r="BE45" s="60"/>
+      <c r="BD45" s="53"/>
+      <c r="BE45" s="54"/>
       <c r="BF45" s="55"/>
       <c r="BG45" s="55"/>
       <c r="BH45" s="56"/>
@@ -5515,32 +5531,36 @@
     </row>
     <row r="46" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="12">
-        <v>603</v>
-      </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="49"/>
+        <v>602</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="49">
+        <v>2</v>
+      </c>
       <c r="D46" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D46:D47" si="3">SUM(G46:BJ46)</f>
         <v>0</v>
       </c>
       <c r="E46" s="50"/>
       <c r="F46" s="51"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="60"/>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
       <c r="K46" s="56"/>
       <c r="L46" s="57"/>
       <c r="M46" s="58"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="69"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="60"/>
       <c r="P46" s="55"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="57"/>
       <c r="T46" s="58"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="69"/>
+      <c r="U46" s="59"/>
+      <c r="V46" s="60"/>
       <c r="W46" s="55"/>
       <c r="X46" s="55"/>
       <c r="Y46" s="56"/>
@@ -5560,265 +5580,334 @@
       <c r="AM46" s="60"/>
       <c r="AN46" s="57"/>
       <c r="AO46" s="58"/>
-      <c r="AP46" s="68"/>
-      <c r="AQ46" s="69"/>
+      <c r="AP46" s="59"/>
+      <c r="AQ46" s="60"/>
       <c r="AR46" s="55"/>
-      <c r="AS46" s="55"/>
+      <c r="AS46" s="92"/>
       <c r="AT46" s="56"/>
       <c r="AU46" s="57"/>
       <c r="AV46" s="58"/>
-      <c r="AW46" s="68"/>
-      <c r="AX46" s="69"/>
+      <c r="AW46" s="59"/>
+      <c r="AX46" s="60"/>
       <c r="AY46" s="55"/>
       <c r="AZ46" s="55"/>
       <c r="BA46" s="56"/>
       <c r="BB46" s="57"/>
       <c r="BC46" s="58"/>
-      <c r="BD46" s="68"/>
-      <c r="BE46" s="69"/>
+      <c r="BD46" s="59"/>
+      <c r="BE46" s="60"/>
       <c r="BF46" s="55"/>
       <c r="BG46" s="55"/>
       <c r="BH46" s="56"/>
       <c r="BI46" s="57"/>
       <c r="BJ46" s="58"/>
     </row>
-    <row r="47" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36" t="s">
+    <row r="47" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12">
+        <v>603</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="57"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="61"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="60"/>
+      <c r="AF47" s="60"/>
+      <c r="AG47" s="57"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="60"/>
+      <c r="AJ47" s="60"/>
+      <c r="AK47" s="60"/>
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="60"/>
+      <c r="AN47" s="57"/>
+      <c r="AO47" s="58"/>
+      <c r="AP47" s="68"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="55"/>
+      <c r="AS47" s="55"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="57"/>
+      <c r="AV47" s="58"/>
+      <c r="AW47" s="68"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="55"/>
+      <c r="AZ47" s="55"/>
+      <c r="BA47" s="56"/>
+      <c r="BB47" s="57"/>
+      <c r="BC47" s="58"/>
+      <c r="BD47" s="68"/>
+      <c r="BE47" s="69"/>
+      <c r="BF47" s="55"/>
+      <c r="BG47" s="55"/>
+      <c r="BH47" s="56"/>
+      <c r="BI47" s="57"/>
+      <c r="BJ47" s="58"/>
+    </row>
+    <row r="48" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="37">
-        <f>C43+C40+C35+C18+C14+C9</f>
+      <c r="C48" s="37">
+        <f>C44+C41+C36+C18+C14+C9</f>
         <v>99.5</v>
       </c>
-      <c r="D47" s="37">
-        <f>D43+D40+D35+D18+D14+D9</f>
-        <v>59.3</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39">
-        <f t="shared" ref="G47:AL47" si="4">SUM(G9:G46)</f>
+      <c r="D48" s="37">
+        <f>D44+D41+D36+D18+D14+D9</f>
+        <v>83.3</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39">
+        <f>SUM(G9:G47)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H48" s="39">
+        <f>SUM(H9:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="39">
+        <f>SUM(I9:I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="39">
+        <f>SUM(J9:J47)</f>
+        <v>4</v>
+      </c>
+      <c r="K48" s="39">
+        <f>SUM(K9:K47)</f>
+        <v>8.15</v>
+      </c>
+      <c r="L48" s="39">
+        <f>SUM(L9:L47)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="39">
+        <f>SUM(M9:M47)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="39">
+        <f>SUM(N9:N47)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="39">
+        <f>SUM(O9:O47)</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="39">
+        <f>SUM(P9:P47)</f>
+        <v>8</v>
+      </c>
+      <c r="Q48" s="39">
+        <f>SUM(Q9:Q47)</f>
+        <v>7</v>
+      </c>
+      <c r="R48" s="39">
+        <f>SUM(R9:R47)</f>
+        <v>8.15</v>
+      </c>
+      <c r="S48" s="39">
+        <f>SUM(S9:S47)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="39">
+        <f>SUM(T9:T47)</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="39">
+        <f>SUM(U9:U47)</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="39">
+        <f>SUM(V9:V47)</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="39">
+        <f>SUM(W9:W47)</f>
+        <v>8</v>
+      </c>
+      <c r="X48" s="39">
+        <f>SUM(X9:X47)</f>
+        <v>8</v>
+      </c>
+      <c r="Y48" s="39">
+        <f>SUM(Y9:Y47)</f>
+        <v>8</v>
+      </c>
+      <c r="Z48" s="39">
+        <f>SUM(Z9:Z47)</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="39">
+        <f>SUM(AA9:AA47)</f>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="39">
+        <f>SUM(AB9:AB47)</f>
+        <v>8</v>
+      </c>
+      <c r="AC48" s="39">
+        <f>SUM(AC9:AC47)</f>
+        <v>8</v>
+      </c>
+      <c r="AD48" s="39">
+        <f>SUM(AD9:AD47)</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="39">
+        <f>SUM(AE9:AE47)</f>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="39">
+        <f>SUM(AF9:AF47)</f>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="39">
+        <f>SUM(AG9:AG47)</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="39">
+        <f>SUM(AH9:AH47)</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="39">
+        <f>SUM(AI9:AI47)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="39">
+        <f>SUM(AJ9:AJ47)</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="39">
+        <f>SUM(AK9:AK47)</f>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="39">
+        <f>SUM(AL9:AL47)</f>
+        <v>0</v>
+      </c>
+      <c r="AM48" s="39">
+        <f t="shared" ref="AM48:BJ48" si="4">SUM(AM9:AM47)</f>
+        <v>0</v>
+      </c>
+      <c r="AN48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I47" s="39">
+      <c r="AO48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J47" s="39">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K47" s="39">
-        <f t="shared" si="4"/>
-        <v>8.15</v>
-      </c>
-      <c r="L47" s="39">
+      <c r="AP48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M47" s="39">
+      <c r="AQ48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N47" s="39">
+      <c r="AR48" s="39">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AS48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O47" s="39">
+      <c r="AT48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P47" s="39">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="Q47" s="39">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="R47" s="39">
-        <f t="shared" si="4"/>
-        <v>8.15</v>
-      </c>
-      <c r="S47" s="39">
+      <c r="AU48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T47" s="39">
+      <c r="AV48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="39">
+      <c r="AW48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V47" s="39">
+      <c r="AX48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W47" s="39">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="X47" s="39">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="Y47" s="39">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="Z47" s="39">
+      <c r="AY48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="39">
+      <c r="AZ48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="39">
+      <c r="BA48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="39">
+      <c r="BB48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="39">
+      <c r="BC48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="39">
+      <c r="BD48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="39">
+      <c r="BE48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG47" s="39">
+      <c r="BF48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH47" s="39">
+      <c r="BG48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI47" s="39">
+      <c r="BH48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AJ47" s="39">
+      <c r="BI48" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK47" s="39">
+      <c r="BJ48" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM47" s="39">
-        <f t="shared" ref="AM47:BJ47" si="5">SUM(AM9:AM46)</f>
-        <v>0</v>
-      </c>
-      <c r="AN47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AO47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AP47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AS47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AV47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AW47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AX47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AY47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BA47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BC47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BD47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BH47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI47" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ47" s="40">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5925,55 +6014,55 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="102" t="str">
-        <f>Zeitplanung!B35</f>
+        <f>Zeitplanung!B36</f>
         <v>Testen</v>
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="79">
-        <f>Zeitplanung!C35</f>
+        <f>Zeitplanung!C36</f>
         <v>16</v>
       </c>
       <c r="D6" s="79">
-        <f>Zeitplanung!D35</f>
-        <v>0</v>
+        <f>Zeitplanung!D36</f>
+        <v>4</v>
       </c>
       <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="102" t="str">
-        <f>Zeitplanung!B40</f>
+        <f>Zeitplanung!B41</f>
         <v>Diverses</v>
       </c>
       <c r="B7" s="103"/>
       <c r="C7" s="79">
-        <f>Zeitplanung!C40</f>
+        <f>Zeitplanung!C41</f>
         <v>4</v>
       </c>
       <c r="D7" s="79">
-        <f>Zeitplanung!D40</f>
+        <f>Zeitplanung!D41</f>
         <v>0</v>
       </c>
       <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="102" t="str">
-        <f>Zeitplanung!B43</f>
+        <f>Zeitplanung!B44</f>
         <v>Abschluss</v>
       </c>
       <c r="B8" s="103"/>
       <c r="C8" s="79">
-        <f>Zeitplanung!C43</f>
+        <f>Zeitplanung!C44</f>
         <v>4</v>
       </c>
       <c r="D8" s="79">
-        <f>Zeitplanung!D43</f>
+        <f>Zeitplanung!D44</f>
         <v>0</v>
       </c>
       <c r="F8" s="80"/>
